--- a/sources/Khmer_data.xlsx
+++ b/sources/Khmer_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="549">
   <si>
     <t>language_no</t>
   </si>
@@ -1635,9 +1635,6 @@
     <t>TR</t>
   </si>
   <si>
-    <t>COMP</t>
-  </si>
-  <si>
     <t>NMN</t>
   </si>
   <si>
@@ -1669,6 +1666,9 @@
   </si>
   <si>
     <t>PREP-3</t>
+  </si>
+  <si>
+    <t>Почему-то в сводных данных стояло ничего (как в статье), а языковых таблицах было скопировано какое-то загадочное COMP. Но вроде бы на самом деле это нормальная переходная конструкция ("иметь болезнь").</t>
   </si>
 </sst>
 </file>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2227,7 +2227,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="5"/>
       <c r="L3" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="5"/>
@@ -2235,7 +2235,9 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2373,7 +2375,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="5"/>
       <c r="L7" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="5"/>
@@ -2410,7 +2412,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
       <c r="L8" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="5"/>
@@ -2556,7 +2558,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="5"/>
       <c r="L12" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="5"/>
@@ -2593,7 +2595,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="5"/>
       <c r="L13" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="5"/>
@@ -2667,7 +2669,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
       <c r="L15" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="5"/>
@@ -2996,7 +2998,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="5"/>
       <c r="L24" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="5"/>
@@ -3033,7 +3035,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="5"/>
       <c r="L25" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="5"/>
@@ -3070,7 +3072,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="5"/>
       <c r="L26" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="5"/>
@@ -3255,7 +3257,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="5"/>
       <c r="L31" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="5"/>
@@ -3911,7 +3913,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="5"/>
       <c r="L49" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="5"/>
@@ -4057,7 +4059,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="5"/>
       <c r="L53" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="5"/>
@@ -4274,7 +4276,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="10"/>
       <c r="M59" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -4491,7 +4493,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="5"/>
       <c r="L65" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="5"/>
@@ -4855,7 +4857,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="5"/>
       <c r="L75" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="5"/>
@@ -5108,7 +5110,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="5"/>
       <c r="L82" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M82" s="12"/>
       <c r="N82" s="5"/>
@@ -5182,10 +5184,10 @@
       <c r="J84" s="7"/>
       <c r="K84" s="5"/>
       <c r="L84" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -5221,7 +5223,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="5"/>
       <c r="L85" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="5"/>
@@ -5367,7 +5369,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="5"/>
       <c r="L89" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="5"/>
@@ -5441,7 +5443,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="5"/>
       <c r="L91" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="5"/>
@@ -5587,7 +5589,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="5"/>
       <c r="L95" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="5"/>
@@ -5729,7 +5731,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="5"/>
       <c r="L99" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="5"/>
@@ -5766,7 +5768,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="5"/>
       <c r="L100" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="5"/>
@@ -6242,7 +6244,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="11"/>
       <c r="M113" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
@@ -6419,7 +6421,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="10"/>
       <c r="M118" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
@@ -6456,7 +6458,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="10"/>
       <c r="M119" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
@@ -6528,7 +6530,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="10"/>
       <c r="M121" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
@@ -6600,7 +6602,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="10"/>
       <c r="M123" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
@@ -6637,7 +6639,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="10"/>
       <c r="M124" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
@@ -6779,7 +6781,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="10"/>
       <c r="M128" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
@@ -6816,7 +6818,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="10"/>
       <c r="M129" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
@@ -6853,7 +6855,7 @@
       <c r="K130" s="5"/>
       <c r="L130" s="10"/>
       <c r="M130" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>

--- a/sources/Khmer_data.xlsx
+++ b/sources/Khmer_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="558">
   <si>
     <t>language_no</t>
   </si>
@@ -1635,24 +1635,6 @@
     <t>TR</t>
   </si>
   <si>
-    <t>NMN</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>KNON</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>CIAMUAY</t>
-  </si>
-  <si>
-    <t>DQL</t>
-  </si>
-  <si>
     <t>(PREP)</t>
   </si>
   <si>
@@ -1669,13 +1651,58 @@
   </si>
   <si>
     <t>Почему-то в сводных данных стояло ничего (как в статье), а языковых таблицах было скопировано какое-то загадочное COMP. Но вроде бы на самом деле это нормальная переходная конструкция ("иметь болезнь").</t>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>SBJ_knong</t>
+  </si>
+  <si>
+    <t>knong</t>
+  </si>
+  <si>
+    <t>ciemuey</t>
+  </si>
+  <si>
+    <t>SBJ_ciemuey</t>
+  </si>
+  <si>
+    <t>dal</t>
+  </si>
+  <si>
+    <t>SBJ_dal</t>
+  </si>
+  <si>
+    <t>SBJ_lo</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>nung</t>
+  </si>
+  <si>
+    <t>SBJ_nung</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>SBJ_pi</t>
+  </si>
+  <si>
+    <t>DO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1697,18 +1724,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
@@ -1755,7 +1778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1780,21 +1803,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2077,31 +2099,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="C122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" customWidth="1"/>
-    <col min="15" max="15" width="46" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="6" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="46" style="10" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
@@ -2163,7 +2186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>15</v>
       </c>
@@ -2186,10 +2209,16 @@
         <v>22</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="10" t="s">
+      <c r="I2" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M2" s="12"/>
@@ -2200,7 +2229,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -2223,10 +2252,16 @@
         <v>26</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="10" t="s">
+      <c r="I3" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M3" s="12"/>
@@ -2236,10 +2271,10 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="5" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>15</v>
       </c>
@@ -2262,10 +2297,16 @@
         <v>30</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="10" t="s">
+      <c r="I4" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M4" s="12"/>
@@ -2276,7 +2317,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>15</v>
       </c>
@@ -2299,10 +2340,16 @@
         <v>34</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10" t="s">
+      <c r="I5" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M5" s="12"/>
@@ -2313,7 +2360,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -2335,11 +2382,19 @@
       <c r="G6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="10"/>
+      <c r="H6" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="12"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -2348,7 +2403,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>15</v>
       </c>
@@ -2371,11 +2426,17 @@
         <v>42</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="10" t="s">
-        <v>537</v>
+      <c r="I7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="5"/>
@@ -2385,7 +2446,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -2408,11 +2469,17 @@
         <v>46</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="10" t="s">
-        <v>538</v>
+      <c r="I8" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="5"/>
@@ -2422,7 +2489,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>15</v>
       </c>
@@ -2445,10 +2512,16 @@
         <v>50</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="10" t="s">
+      <c r="I9" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M9" s="12"/>
@@ -2459,7 +2532,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>15</v>
       </c>
@@ -2482,10 +2555,16 @@
         <v>54</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="10" t="s">
+      <c r="I10" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M10" s="12"/>
@@ -2496,7 +2575,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -2518,11 +2597,19 @@
       <c r="G11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="12"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2531,7 +2618,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -2554,11 +2641,17 @@
         <v>62</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="10" t="s">
-        <v>537</v>
+      <c r="I12" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="5"/>
@@ -2568,7 +2661,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>15</v>
       </c>
@@ -2591,11 +2684,17 @@
         <v>66</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="10" t="s">
-        <v>539</v>
+      <c r="I13" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>545</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="5"/>
@@ -2605,7 +2704,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>15</v>
       </c>
@@ -2628,10 +2727,16 @@
         <v>70</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10" t="s">
+      <c r="I14" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M14" s="12"/>
@@ -2642,7 +2747,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -2665,11 +2770,17 @@
         <v>74</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="10" t="s">
-        <v>540</v>
+      <c r="I15" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="5"/>
@@ -2679,7 +2790,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2702,10 +2813,16 @@
         <v>78</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="10" t="s">
+      <c r="I16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M16" s="12"/>
@@ -2716,7 +2833,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2739,10 +2856,16 @@
         <v>82</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="10" t="s">
+      <c r="I17" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M17" s="12"/>
@@ -2753,7 +2876,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2775,11 +2898,19 @@
       <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="10"/>
+      <c r="H18" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="12"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -2788,7 +2919,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2811,10 +2942,16 @@
         <v>90</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="10" t="s">
+      <c r="I19" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M19" s="12"/>
@@ -2825,7 +2962,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2847,11 +2984,19 @@
       <c r="G20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="10"/>
+      <c r="H20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L20" s="11"/>
       <c r="M20" s="12"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -2860,7 +3005,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2883,10 +3028,16 @@
         <v>98</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="10" t="s">
+      <c r="I21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M21" s="12"/>
@@ -2897,7 +3048,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -2920,10 +3071,16 @@
         <v>102</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="10" t="s">
+      <c r="I22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M22" s="12"/>
@@ -2934,7 +3091,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>15</v>
       </c>
@@ -2957,10 +3114,16 @@
         <v>106</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="10" t="s">
+      <c r="I23" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L23" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M23" s="12"/>
@@ -2971,7 +3134,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2994,11 +3157,17 @@
         <v>110</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="10" t="s">
-        <v>541</v>
+      <c r="I24" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>548</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="5"/>
@@ -3008,7 +3177,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>15</v>
       </c>
@@ -3031,11 +3200,17 @@
         <v>114</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="10" t="s">
-        <v>537</v>
+      <c r="I25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="5"/>
@@ -3045,7 +3220,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>15</v>
       </c>
@@ -3068,11 +3243,17 @@
         <v>118</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="10" t="s">
-        <v>542</v>
+      <c r="I26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>550</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="5"/>
@@ -3082,7 +3263,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>15</v>
       </c>
@@ -3105,10 +3286,16 @@
         <v>122</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="10" t="s">
+      <c r="I27" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L27" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M27" s="12"/>
@@ -3119,7 +3306,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>15</v>
       </c>
@@ -3142,10 +3329,16 @@
         <v>126</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="10" t="s">
+      <c r="I28" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M28" s="12"/>
@@ -3156,7 +3349,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>15</v>
       </c>
@@ -3179,10 +3372,16 @@
         <v>130</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="10" t="s">
+      <c r="I29" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M29" s="12"/>
@@ -3193,7 +3392,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -3216,10 +3415,16 @@
         <v>134</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="10" t="s">
+      <c r="I30" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L30" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M30" s="12"/>
@@ -3230,7 +3435,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>15</v>
       </c>
@@ -3253,11 +3458,17 @@
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="10" t="s">
-        <v>538</v>
+      <c r="I31" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="5"/>
@@ -3267,7 +3478,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>15</v>
       </c>
@@ -3289,11 +3500,19 @@
       <c r="G32" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="10"/>
+      <c r="H32" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L32" s="11"/>
       <c r="M32" s="12"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -3302,7 +3521,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>15</v>
       </c>
@@ -3324,11 +3543,19 @@
       <c r="G33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="10"/>
+      <c r="H33" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L33" s="11"/>
       <c r="M33" s="12"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3337,7 +3564,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>15</v>
       </c>
@@ -3360,10 +3587,16 @@
         <v>150</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="I34" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M34" s="12"/>
@@ -3374,7 +3607,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="5"/>
     </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>15</v>
       </c>
@@ -3397,10 +3630,16 @@
         <v>154</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="11" t="s">
+      <c r="I35" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L35" s="8" t="s">
         <v>536</v>
       </c>
       <c r="M35" s="12"/>
@@ -3411,7 +3650,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="5"/>
     </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>15</v>
       </c>
@@ -3433,11 +3672,19 @@
       <c r="G36" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="10"/>
+      <c r="H36" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L36" s="11"/>
       <c r="M36" s="12"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3446,7 +3693,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>15</v>
       </c>
@@ -3469,10 +3716,16 @@
         <v>162</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="I37" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L37" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M37" s="12"/>
@@ -3483,7 +3736,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="5"/>
     </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>15</v>
       </c>
@@ -3505,11 +3758,19 @@
       <c r="G38" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="10"/>
+      <c r="H38" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L38" s="11"/>
       <c r="M38" s="12"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -3518,7 +3779,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -3541,10 +3802,16 @@
         <v>169</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="I39" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L39" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M39" s="12"/>
@@ -3555,7 +3822,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>15</v>
       </c>
@@ -3578,10 +3845,16 @@
         <v>173</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="10" t="s">
+      <c r="I40" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L40" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M40" s="12"/>
@@ -3592,7 +3865,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>15</v>
       </c>
@@ -3615,10 +3888,16 @@
         <v>177</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="10" t="s">
+      <c r="I41" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L41" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M41" s="12"/>
@@ -3629,7 +3908,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>15</v>
       </c>
@@ -3652,10 +3931,16 @@
         <v>181</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="10" t="s">
+      <c r="I42" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L42" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M42" s="12"/>
@@ -3666,7 +3951,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>15</v>
       </c>
@@ -3688,11 +3973,19 @@
       <c r="G43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="10"/>
+      <c r="H43" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L43" s="11"/>
       <c r="M43" s="12"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -3701,7 +3994,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>15</v>
       </c>
@@ -3724,10 +4017,16 @@
         <v>189</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="10" t="s">
+      <c r="I44" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L44" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M44" s="12"/>
@@ -3738,7 +4037,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="5"/>
     </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>15</v>
       </c>
@@ -3761,10 +4060,16 @@
         <v>193</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="10" t="s">
+      <c r="I45" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L45" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M45" s="12"/>
@@ -3775,7 +4080,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="5"/>
     </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>15</v>
       </c>
@@ -3798,10 +4103,16 @@
         <v>197</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="10" t="s">
+      <c r="I46" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L46" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M46" s="12"/>
@@ -3812,7 +4123,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="5"/>
     </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>15</v>
       </c>
@@ -3835,10 +4146,16 @@
         <v>201</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="10" t="s">
+      <c r="I47" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L47" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M47" s="13"/>
@@ -3849,7 +4166,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="5"/>
     </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>15</v>
       </c>
@@ -3872,10 +4189,16 @@
         <v>205</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="10" t="s">
+      <c r="I48" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L48" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M48" s="12"/>
@@ -3886,7 +4209,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="5"/>
     </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>15</v>
       </c>
@@ -3909,11 +4232,17 @@
         <v>209</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="5"/>
+      <c r="I49" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L49" s="11" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="5"/>
@@ -3923,7 +4252,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="5"/>
     </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>15</v>
       </c>
@@ -3946,10 +4275,16 @@
         <v>213</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="I50" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L50" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M50" s="12"/>
@@ -3960,7 +4295,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="5"/>
     </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>15</v>
       </c>
@@ -3983,10 +4318,16 @@
         <v>217</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="I51" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L51" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M51" s="12"/>
@@ -3997,7 +4338,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="5"/>
     </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>15</v>
       </c>
@@ -4019,11 +4360,19 @@
       <c r="G52" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="10"/>
+      <c r="H52" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L52" s="11"/>
       <c r="M52" s="12"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -4032,7 +4381,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="5"/>
     </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>15</v>
       </c>
@@ -4055,11 +4404,17 @@
         <v>225</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
-        <v>542</v>
+      <c r="I53" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>550</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="5"/>
@@ -4069,7 +4424,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="5"/>
     </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>15</v>
       </c>
@@ -4091,11 +4446,19 @@
       <c r="G54" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="10"/>
+      <c r="H54" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L54" s="11"/>
       <c r="M54" s="12"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -4104,7 +4467,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="5"/>
     </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>15</v>
       </c>
@@ -4127,10 +4490,16 @@
         <v>233</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="I55" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L55" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M55" s="12"/>
@@ -4141,7 +4510,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="5"/>
     </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -4163,11 +4532,19 @@
       <c r="G56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="10"/>
+      <c r="H56" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L56" s="11"/>
       <c r="M56" s="12"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -4176,7 +4553,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="5"/>
     </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>15</v>
       </c>
@@ -4199,10 +4576,16 @@
         <v>241</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="I57" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L57" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M57" s="12"/>
@@ -4213,7 +4596,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="5"/>
     </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>15</v>
       </c>
@@ -4235,11 +4618,19 @@
       <c r="G58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="10"/>
+      <c r="H58" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L58" s="11"/>
       <c r="M58" s="13"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -4248,7 +4639,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="5"/>
     </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>15</v>
       </c>
@@ -4270,13 +4661,21 @@
       <c r="G59" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="10"/>
+      <c r="H59" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L59" s="11"/>
       <c r="M59" s="13" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -4285,7 +4684,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="5"/>
     </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>15</v>
       </c>
@@ -4308,10 +4707,16 @@
         <v>253</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="I60" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L60" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M60" s="12"/>
@@ -4322,7 +4727,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="5"/>
     </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>15</v>
       </c>
@@ -4344,11 +4749,19 @@
       <c r="G61" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="10"/>
+      <c r="H61" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L61" s="11"/>
       <c r="M61" s="12"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -4357,7 +4770,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="5"/>
     </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>15</v>
       </c>
@@ -4380,10 +4793,16 @@
         <v>261</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="I62" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L62" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M62" s="14"/>
@@ -4394,7 +4813,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="5"/>
     </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>15</v>
       </c>
@@ -4416,11 +4835,19 @@
       <c r="G63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="10"/>
+      <c r="H63" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L63" s="11"/>
       <c r="M63" s="12"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -4429,7 +4856,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="5"/>
     </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>15</v>
       </c>
@@ -4452,10 +4879,16 @@
         <v>269</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="I64" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L64" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M64" s="12"/>
@@ -4466,7 +4899,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="5"/>
     </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>15</v>
       </c>
@@ -4489,11 +4922,17 @@
         <v>273</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
-        <v>540</v>
+      <c r="I65" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="5"/>
@@ -4503,7 +4942,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="5"/>
     </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>15</v>
       </c>
@@ -4525,11 +4964,19 @@
       <c r="G66" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="10"/>
+      <c r="H66" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" s="11"/>
       <c r="M66" s="12"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -4538,7 +4985,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="5"/>
     </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>15</v>
       </c>
@@ -4561,10 +5008,16 @@
         <v>281</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="I67" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L67" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M67" s="12"/>
@@ -4575,7 +5028,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="5"/>
     </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>15</v>
       </c>
@@ -4597,10 +5050,18 @@
       <c r="G68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="5"/>
+      <c r="H68" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="L68" s="11"/>
       <c r="M68" s="12"/>
       <c r="N68" s="5"/>
@@ -4610,7 +5071,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="5"/>
     </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>15</v>
       </c>
@@ -4633,10 +5094,16 @@
         <v>289</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="I69" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L69" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M69" s="12"/>
@@ -4647,7 +5114,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="5"/>
     </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>15</v>
       </c>
@@ -4670,10 +5137,16 @@
         <v>293</v>
       </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="I70" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L70" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M70" s="12"/>
@@ -4684,7 +5157,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="5"/>
     </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>15</v>
       </c>
@@ -4707,10 +5180,16 @@
         <v>297</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="I71" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L71" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M71" s="12"/>
@@ -4721,7 +5200,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="5"/>
     </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>15</v>
       </c>
@@ -4744,10 +5223,16 @@
         <v>301</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="I72" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L72" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M72" s="12"/>
@@ -4758,7 +5243,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="5"/>
     </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>15</v>
       </c>
@@ -4781,10 +5266,16 @@
         <v>305</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="I73" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L73" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M73" s="12"/>
@@ -4795,7 +5286,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="5"/>
     </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>15</v>
       </c>
@@ -4817,11 +5308,19 @@
       <c r="G74" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="10"/>
+      <c r="H74" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L74" s="11"/>
       <c r="M74" s="12"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
@@ -4830,7 +5329,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="5"/>
     </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>15</v>
       </c>
@@ -4853,11 +5352,17 @@
         <v>313</v>
       </c>
       <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
-        <v>540</v>
+      <c r="I75" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="M75" s="12"/>
       <c r="N75" s="5"/>
@@ -4867,7 +5372,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="5"/>
     </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>15</v>
       </c>
@@ -4889,11 +5394,19 @@
       <c r="G76" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="10"/>
+      <c r="H76" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L76" s="11"/>
       <c r="M76" s="12"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
@@ -4902,7 +5415,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="5"/>
     </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>15</v>
       </c>
@@ -4925,10 +5438,16 @@
         <v>321</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="I77" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L77" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M77" s="12"/>
@@ -4939,7 +5458,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="5"/>
     </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>15</v>
       </c>
@@ -4962,10 +5481,16 @@
         <v>325</v>
       </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="10" t="s">
+      <c r="I78" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L78" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M78" s="12"/>
@@ -4976,7 +5501,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="5"/>
     </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>15</v>
       </c>
@@ -4998,11 +5523,19 @@
       <c r="G79" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="10"/>
+      <c r="H79" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L79" s="11"/>
       <c r="M79" s="12"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
@@ -5011,7 +5544,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="5"/>
     </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>15</v>
       </c>
@@ -5034,10 +5567,16 @@
         <v>333</v>
       </c>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="I80" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L80" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M80" s="12"/>
@@ -5048,7 +5587,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="5"/>
     </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>15</v>
       </c>
@@ -5070,11 +5609,19 @@
       <c r="G81" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="10"/>
+      <c r="H81" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L81" s="11"/>
       <c r="M81" s="12"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
@@ -5083,7 +5630,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="5"/>
     </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>15</v>
       </c>
@@ -5106,11 +5653,17 @@
         <v>341</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
-        <v>537</v>
+      <c r="I82" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="M82" s="12"/>
       <c r="N82" s="5"/>
@@ -5120,7 +5673,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="5"/>
     </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>15</v>
       </c>
@@ -5143,10 +5696,16 @@
         <v>345</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="I83" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L83" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M83" s="12"/>
@@ -5157,7 +5716,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="5"/>
     </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>15</v>
       </c>
@@ -5180,14 +5739,20 @@
         <v>349</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="5"/>
+      <c r="I84" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L84" s="11" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -5196,7 +5761,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="5"/>
     </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>15</v>
       </c>
@@ -5219,11 +5784,17 @@
         <v>353</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
-        <v>541</v>
+      <c r="I85" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>548</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="5"/>
@@ -5233,7 +5804,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="5"/>
     </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>15</v>
       </c>
@@ -5256,10 +5827,16 @@
         <v>357</v>
       </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="I86" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L86" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M86" s="12"/>
@@ -5270,7 +5847,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="5"/>
     </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>15</v>
       </c>
@@ -5293,10 +5870,16 @@
         <v>361</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="I87" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L87" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M87" s="12"/>
@@ -5307,7 +5890,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>15</v>
       </c>
@@ -5329,11 +5912,19 @@
       <c r="G88" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="10"/>
+      <c r="H88" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L88" s="11"/>
       <c r="M88" s="12"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
@@ -5342,7 +5933,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="5"/>
     </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>15</v>
       </c>
@@ -5365,11 +5956,17 @@
         <v>369</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="5"/>
+      <c r="I89" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L89" s="11" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="5"/>
@@ -5379,7 +5976,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="5"/>
     </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>15</v>
       </c>
@@ -5402,10 +5999,16 @@
         <v>373</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="11" t="s">
+      <c r="I90" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L90" s="8" t="s">
         <v>536</v>
       </c>
       <c r="M90" s="12"/>
@@ -5416,7 +6019,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="5"/>
     </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>15</v>
       </c>
@@ -5439,11 +6042,17 @@
         <v>377</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
-        <v>540</v>
+      <c r="I91" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="M91" s="12"/>
       <c r="N91" s="5"/>
@@ -5453,7 +6062,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="5"/>
     </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>15</v>
       </c>
@@ -5476,10 +6085,16 @@
         <v>381</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="I92" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L92" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M92" s="12"/>
@@ -5490,7 +6105,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="5"/>
     </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>15</v>
       </c>
@@ -5512,10 +6127,18 @@
       <c r="G93" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="5"/>
+      <c r="H93" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="L93" s="11"/>
       <c r="M93" s="12"/>
       <c r="N93" s="5"/>
@@ -5525,7 +6148,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="5"/>
     </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>15</v>
       </c>
@@ -5548,10 +6171,16 @@
         <v>389</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="I94" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L94" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M94" s="12"/>
@@ -5562,7 +6191,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="5"/>
     </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>15</v>
       </c>
@@ -5585,11 +6214,17 @@
         <v>393</v>
       </c>
       <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
-        <v>537</v>
+      <c r="I95" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="M95" s="12"/>
       <c r="N95" s="5"/>
@@ -5599,7 +6234,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="5"/>
     </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>15</v>
       </c>
@@ -5621,11 +6256,19 @@
       <c r="G96" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="10"/>
+      <c r="H96" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L96" s="11"/>
       <c r="M96" s="12"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
@@ -5634,7 +6277,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="5"/>
     </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>15</v>
       </c>
@@ -5656,11 +6299,19 @@
       <c r="G97" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="10"/>
+      <c r="H97" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L97" s="11"/>
       <c r="M97" s="12"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
@@ -5669,7 +6320,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="5"/>
     </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>15</v>
       </c>
@@ -5691,11 +6342,19 @@
       <c r="G98" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="10"/>
+      <c r="H98" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L98" s="11"/>
       <c r="M98" s="12"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -5704,7 +6363,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="5"/>
     </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>15</v>
       </c>
@@ -5727,11 +6386,17 @@
         <v>409</v>
       </c>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
-        <v>541</v>
+      <c r="I99" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>548</v>
       </c>
       <c r="M99" s="12"/>
       <c r="N99" s="5"/>
@@ -5741,7 +6406,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>15</v>
       </c>
@@ -5764,11 +6429,17 @@
         <v>413</v>
       </c>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
-        <v>541</v>
+      <c r="I100" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>548</v>
       </c>
       <c r="M100" s="12"/>
       <c r="N100" s="5"/>
@@ -5778,7 +6449,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>15</v>
       </c>
@@ -5801,10 +6472,16 @@
         <v>417</v>
       </c>
       <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="I101" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L101" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M101" s="12"/>
@@ -5815,7 +6492,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>15</v>
       </c>
@@ -5838,10 +6515,16 @@
         <v>421</v>
       </c>
       <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="I102" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L102" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M102" s="12"/>
@@ -5852,7 +6535,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>15</v>
       </c>
@@ -5875,10 +6558,16 @@
         <v>425</v>
       </c>
       <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="I103" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L103" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M103" s="12"/>
@@ -5889,7 +6578,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>15</v>
       </c>
@@ -5912,10 +6601,16 @@
         <v>428</v>
       </c>
       <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="I104" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L104" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M104" s="12"/>
@@ -5926,7 +6621,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="5"/>
     </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>15</v>
       </c>
@@ -5948,11 +6643,19 @@
       <c r="G105" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="10"/>
+      <c r="H105" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L105" s="11"/>
       <c r="M105" s="12"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
@@ -5961,7 +6664,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="5"/>
     </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>15</v>
       </c>
@@ -5984,10 +6687,16 @@
         <v>436</v>
       </c>
       <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="I106" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L106" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M106" s="12"/>
@@ -5998,7 +6707,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="5"/>
     </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>15</v>
       </c>
@@ -6021,10 +6730,16 @@
         <v>439</v>
       </c>
       <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="I107" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L107" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M107" s="12"/>
@@ -6035,7 +6750,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="5"/>
     </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>15</v>
       </c>
@@ -6058,10 +6773,16 @@
         <v>443</v>
       </c>
       <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="I108" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L108" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M108" s="12"/>
@@ -6072,7 +6793,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="5"/>
     </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>15</v>
       </c>
@@ -6095,10 +6816,16 @@
         <v>447</v>
       </c>
       <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="I109" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L109" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M109" s="12"/>
@@ -6109,7 +6836,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="5"/>
     </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>15</v>
       </c>
@@ -6132,10 +6859,16 @@
         <v>451</v>
       </c>
       <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="I110" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L110" s="11" t="s">
         <v>536</v>
       </c>
       <c r="M110" s="12"/>
@@ -6146,7 +6879,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>15</v>
       </c>
@@ -6168,11 +6901,19 @@
       <c r="G111" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="10"/>
+      <c r="H111" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L111" s="11"/>
       <c r="M111" s="13"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
@@ -6181,7 +6922,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>15</v>
       </c>
@@ -6203,11 +6944,19 @@
       <c r="G112" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="10"/>
+      <c r="H112" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L112" s="11"/>
       <c r="M112" s="13"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
@@ -6216,7 +6965,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
     </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>15</v>
       </c>
@@ -6238,13 +6987,21 @@
       <c r="G113" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="5"/>
+      <c r="H113" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="L113" s="11"/>
       <c r="M113" s="13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
@@ -6253,7 +7010,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
     </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>15</v>
       </c>
@@ -6275,11 +7032,19 @@
       <c r="G114" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="10"/>
+      <c r="H114" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L114" s="11"/>
       <c r="M114" s="13"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
@@ -6288,7 +7053,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
     </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>15</v>
       </c>
@@ -6310,11 +7075,19 @@
       <c r="G115" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="10"/>
+      <c r="H115" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L115" s="11"/>
       <c r="M115" s="13"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
@@ -6323,7 +7096,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
     </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>15</v>
       </c>
@@ -6345,11 +7118,19 @@
       <c r="G116" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="10"/>
+      <c r="H116" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L116" s="11"/>
       <c r="M116" s="13"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
@@ -6358,7 +7139,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
     </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>15</v>
       </c>
@@ -6380,10 +7161,18 @@
       <c r="G117" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="5"/>
+      <c r="H117" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="L117" s="11"/>
       <c r="M117" s="13"/>
       <c r="N117" s="5"/>
@@ -6393,7 +7182,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
     </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>15</v>
       </c>
@@ -6415,13 +7204,21 @@
       <c r="G118" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="10"/>
+      <c r="H118" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L118" s="11"/>
       <c r="M118" s="13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
@@ -6430,7 +7227,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
     </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>15</v>
       </c>
@@ -6452,13 +7249,21 @@
       <c r="G119" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="10"/>
+      <c r="H119" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L119" s="11"/>
       <c r="M119" s="13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
@@ -6467,7 +7272,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="5"/>
     </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>15</v>
       </c>
@@ -6489,11 +7294,19 @@
       <c r="G120" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="10"/>
+      <c r="H120" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L120" s="11"/>
       <c r="M120" s="13"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
@@ -6502,7 +7315,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="5"/>
     </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>15</v>
       </c>
@@ -6524,13 +7337,21 @@
       <c r="G121" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="10"/>
+      <c r="H121" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L121" s="11"/>
       <c r="M121" s="13" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
@@ -6539,7 +7360,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="5"/>
     </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>15</v>
       </c>
@@ -6561,11 +7382,19 @@
       <c r="G122" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="10"/>
+      <c r="H122" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L122" s="11"/>
       <c r="M122" s="13"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
@@ -6574,7 +7403,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="5"/>
     </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>15</v>
       </c>
@@ -6596,13 +7425,21 @@
       <c r="G123" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="10"/>
+      <c r="H123" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L123" s="11"/>
       <c r="M123" s="13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
@@ -6611,7 +7448,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="5"/>
     </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>15</v>
       </c>
@@ -6633,13 +7470,21 @@
       <c r="G124" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="10"/>
+      <c r="H124" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L124" s="11"/>
       <c r="M124" s="13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
@@ -6648,7 +7493,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="5"/>
     </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>15</v>
       </c>
@@ -6670,11 +7515,19 @@
       <c r="G125" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="10"/>
+      <c r="H125" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L125" s="11"/>
       <c r="M125" s="13"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
@@ -6683,7 +7536,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="5"/>
     </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>15</v>
       </c>
@@ -6705,11 +7558,19 @@
       <c r="G126" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="10"/>
+      <c r="H126" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L126" s="11"/>
       <c r="M126" s="13"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
@@ -6718,7 +7579,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="5"/>
     </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>15</v>
       </c>
@@ -6740,11 +7601,19 @@
       <c r="G127" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="10"/>
+      <c r="H127" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L127" s="11"/>
       <c r="M127" s="13"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
@@ -6753,7 +7622,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="5"/>
     </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>15</v>
       </c>
@@ -6775,13 +7644,21 @@
       <c r="G128" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="10"/>
+      <c r="H128" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L128" s="11"/>
       <c r="M128" s="13" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
@@ -6790,7 +7667,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="5"/>
     </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>15</v>
       </c>
@@ -6812,13 +7689,21 @@
       <c r="G129" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="10"/>
+      <c r="H129" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L129" s="11"/>
       <c r="M129" s="13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
@@ -6827,7 +7712,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="5"/>
     </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>15</v>
       </c>
@@ -6849,13 +7734,21 @@
       <c r="G130" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="10"/>
+      <c r="H130" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L130" s="11"/>
       <c r="M130" s="13" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
@@ -6864,7 +7757,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="5"/>
     </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>15</v>
       </c>
@@ -6886,11 +7779,19 @@
       <c r="G131" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="10"/>
+      <c r="H131" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L131" s="11"/>
       <c r="M131" s="13"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
@@ -6902,5 +7803,6 @@
   </sheetData>
   <autoFilter ref="A1:S131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>